--- a/AllicaAPIautomation/src/test/java/logs/APIdataLog.xlsx
+++ b/AllicaAPIautomation/src/test/java/logs/APIdataLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZERO079.MDLT079\Documents\AllicaAPIautomation\AllicaAPIautomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dishas\Documents\Fresh\AllicaAPIautomation - Copy\AllicaAPIautomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="ExperienceAPI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -95,94 +95,57 @@
     <t>POST</t>
   </si>
   <si>
-    <t>transactionID = "3F2504E0-4F89-11D3-9A0C-0305E82C3303"
- RequestID = "3F2504E0-4F89-11D3-9A0C-0305E82C3303"
- clientID = "10f17ccb2ed44baeac09e852f0835c68"
- clientSecret = "2C5f53cDd3c845F596C305884bfFc0B0"</t>
+    <t>https://ab-e-mobile-interface-v1-sit.uk-e1.cloudhub.io/api/ab-e-mobile-interface/v1/users</t>
+  </si>
+  <si>
+    <t>{"username":  "dynamicAlphaNum", "phoneNo": "+447459705239","email": "disha.allica@allica.co.uk","password": "Allica123$"}</t>
+  </si>
+  <si>
+    <t>UserRegister</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Extracted</t>
+  </si>
+  <si>
+    <t>sessionId</t>
   </si>
   <si>
     <t>{
-  "isValid": true
+  "sessionId": "oacts_NUsXdhHTusxAf4Gyts5F4CCHnK29O-YIxt5rPpJgn_4"
 }</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 200 OK</t>
-  </si>
-  <si>
-    <t>2815</t>
-  </si>
-  <si>
-    <t>{
-  "isValid": false
-}</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>{
-  "error": {
-    "errorCode": 400,
-    "errorDateTime": "2019-01-11T11:21:59",
-    "errorMessage": "Invalid value '' for query parameter email. Expected min length 1",
-    "errorDescription": "error"
-  }
-}</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>{
-  "error": {
-    "errorCode": 400,
-    "errorDateTime": "2019-01-11T11:22:00",
-    "errorMessage": "Required query parameter email not specified",
-    "errorDescription": "error"
-  }
-}</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>{
-  "error": {
-    "errorCode": 405,
-    "errorDateTime": "2019-01-11T11:22:01",
-    "errorMessage": "/validate/email : post",
-    "errorDescription": "error"
-  }
-}</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 405 Method Not Allowed</t>
-  </si>
-  <si>
-    <t>944</t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 201 Created</t>
+  </si>
+  <si>
+    <t>1893</t>
+  </si>
+  <si>
+    <t>oacts_NUsXdhHTusxAf4Gyts5F4CCHnK29O-YIxt5rPpJgn_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,283 +241,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <top style="double"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed"/>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="8"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed"/>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="8"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed"/>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="8"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed"/>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="8"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -583,6 +274,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
@@ -595,52 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,27 +606,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" style="7" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" style="1" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="76.2890625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="11.09765625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="32.23828125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.953125" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="13.28515625" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" style="1" width="52.5859375" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="1" width="12.953125" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="1" width="20.5546875" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="1" max="3" style="1" width="13.28515625" collapsed="false"/>
+    <col min="4" max="4" style="7" width="13.28515625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.140625" collapsed="false"/>
+    <col min="6" max="6" style="1" width="13.28515625" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="1" width="16.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="65.3515625" collapsed="false" bestFit="true"/>
+    <col min="10" max="10" style="1" width="11.09765625" collapsed="false" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,52 +650,62 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" t="s" s="10">
+      <c r="E2" s="1"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" t="s" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="13">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="L2" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s" s="15">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1063,20 +723,13 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s" s="17">
-        <v>29</v>
-      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1094,20 +747,13 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" t="s" s="18">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s" s="21">
-        <v>33</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1125,20 +771,13 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s" s="25">
-        <v>35</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1156,20 +795,14 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" t="s" s="26">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s" s="27">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="28">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s" s="29">
-        <v>39</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>